--- a/Code/Results/Cases/Case_1_200/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_200/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C2">
-        <v>0.9680999818179049</v>
+        <v>1.008157561927207</v>
       </c>
       <c r="D2">
-        <v>1.035334694621483</v>
+        <v>1.031908695811567</v>
       </c>
       <c r="E2">
-        <v>0.9788843351945912</v>
+        <v>1.010754702834615</v>
       </c>
       <c r="F2">
-        <v>0.984955854228428</v>
+        <v>1.023523560585324</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048029728832454</v>
+        <v>1.031182607401444</v>
       </c>
       <c r="J2">
-        <v>0.991278558764781</v>
+        <v>1.013425020236795</v>
       </c>
       <c r="K2">
-        <v>1.04632276782053</v>
+        <v>1.034715454374724</v>
       </c>
       <c r="L2">
-        <v>0.9906458996987968</v>
+        <v>1.013623937449379</v>
       </c>
       <c r="M2">
-        <v>0.9966288344656824</v>
+        <v>1.02635474757224</v>
       </c>
       <c r="N2">
-        <v>1.000985663178576</v>
+        <v>1.00860477369097</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9727354959617351</v>
+        <v>1.009138964678214</v>
       </c>
       <c r="D3">
-        <v>1.037339870400996</v>
+        <v>1.03231427939092</v>
       </c>
       <c r="E3">
-        <v>0.9825650314791224</v>
+        <v>1.011587648709747</v>
       </c>
       <c r="F3">
-        <v>0.99031321402713</v>
+        <v>1.024698387513373</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048641234373355</v>
+        <v>1.031236483683852</v>
       </c>
       <c r="J3">
-        <v>0.9939980590265409</v>
+        <v>1.014038053409991</v>
       </c>
       <c r="K3">
-        <v>1.047516273024407</v>
+        <v>1.034930779979953</v>
       </c>
       <c r="L3">
-        <v>0.9934259661196209</v>
+        <v>1.014260946678546</v>
       </c>
       <c r="M3">
-        <v>1.001071558125513</v>
+        <v>1.027335468885301</v>
       </c>
       <c r="N3">
-        <v>1.001926065373614</v>
+        <v>1.008812318123289</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9756726064997248</v>
+        <v>1.009774561752514</v>
       </c>
       <c r="D4">
-        <v>1.038611227866017</v>
+        <v>1.032576308677938</v>
       </c>
       <c r="E4">
-        <v>0.9849039396731674</v>
+        <v>1.012127480847482</v>
       </c>
       <c r="F4">
-        <v>0.9937036175349989</v>
+        <v>1.025458468437626</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049015909241202</v>
+        <v>1.031269677770116</v>
       </c>
       <c r="J4">
-        <v>0.9957197672872895</v>
+        <v>1.014434748068935</v>
       </c>
       <c r="K4">
-        <v>1.048264955374795</v>
+        <v>1.035068962485437</v>
       </c>
       <c r="L4">
-        <v>0.9951880414331717</v>
+        <v>1.014673354616881</v>
       </c>
       <c r="M4">
-        <v>1.003878633099532</v>
+        <v>1.027969387188669</v>
       </c>
       <c r="N4">
-        <v>1.002520756677608</v>
+        <v>1.008946484043177</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9768930213699816</v>
+        <v>1.01004190150845</v>
       </c>
       <c r="D5">
-        <v>1.039139553178857</v>
+        <v>1.032686365424027</v>
       </c>
       <c r="E5">
-        <v>0.985877365566512</v>
+        <v>1.01235463144146</v>
       </c>
       <c r="F5">
-        <v>0.995111397725883</v>
+        <v>1.025777979906885</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049168450891736</v>
+        <v>1.031283232543117</v>
       </c>
       <c r="J5">
-        <v>0.9964347992366629</v>
+        <v>1.014601523147745</v>
       </c>
       <c r="K5">
-        <v>1.048574128288154</v>
+        <v>1.035126778221838</v>
       </c>
       <c r="L5">
-        <v>0.9959203164633496</v>
+        <v>1.014846783108316</v>
       </c>
       <c r="M5">
-        <v>1.005043092692001</v>
+        <v>1.028235724791089</v>
       </c>
       <c r="N5">
-        <v>1.002767564779001</v>
+        <v>1.009002856213794</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9770971095882807</v>
+        <v>1.010086796924366</v>
       </c>
       <c r="D6">
-        <v>1.039227903335095</v>
+        <v>1.032704838488727</v>
       </c>
       <c r="E6">
-        <v>0.9860402411498826</v>
+        <v>1.01239278303239</v>
       </c>
       <c r="F6">
-        <v>0.9953467606544533</v>
+        <v>1.025831625729752</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049193773390432</v>
+        <v>1.031285484967648</v>
       </c>
       <c r="J6">
-        <v>0.9965543507286974</v>
+        <v>1.014629525677133</v>
       </c>
       <c r="K6">
-        <v>1.048625715089594</v>
+        <v>1.035136469499866</v>
       </c>
       <c r="L6">
-        <v>0.9960427788934605</v>
+        <v>1.014875905559487</v>
       </c>
       <c r="M6">
-        <v>1.005237709571554</v>
+        <v>1.028280434558232</v>
       </c>
       <c r="N6">
-        <v>1.002808820276346</v>
+        <v>1.009012319513489</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9756889693607952</v>
+        <v>1.009778133430255</v>
       </c>
       <c r="D7">
-        <v>1.038618311421757</v>
+        <v>1.032577779658626</v>
       </c>
       <c r="E7">
-        <v>0.9849169848528315</v>
+        <v>1.01213051523973</v>
       </c>
       <c r="F7">
-        <v>0.9937224964203688</v>
+        <v>1.025462737869963</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049017966970246</v>
+        <v>1.031269860462511</v>
       </c>
       <c r="J7">
-        <v>0.9957293556435121</v>
+        <v>1.014436976507994</v>
       </c>
       <c r="K7">
-        <v>1.048269108359002</v>
+        <v>1.035069736109228</v>
       </c>
       <c r="L7">
-        <v>0.9951978591317463</v>
+        <v>1.014675671772493</v>
       </c>
       <c r="M7">
-        <v>1.003894253375067</v>
+        <v>1.027972946640359</v>
       </c>
       <c r="N7">
-        <v>1.002524066976952</v>
+        <v>1.008947237413718</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9696798547314476</v>
+        <v>1.008489114679871</v>
       </c>
       <c r="D8">
-        <v>1.036017825059683</v>
+        <v>1.032045848392459</v>
       </c>
       <c r="E8">
-        <v>0.9801373320798447</v>
+        <v>1.011036022128824</v>
       </c>
       <c r="F8">
-        <v>0.9867825972238106</v>
+        <v>1.023920621723085</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048240776481801</v>
+        <v>1.031201159909769</v>
       </c>
       <c r="J8">
-        <v>0.9922056914626352</v>
+        <v>1.013632193017655</v>
       </c>
       <c r="K8">
-        <v>1.046731050948497</v>
+        <v>1.034788461405408</v>
       </c>
       <c r="L8">
-        <v>0.9915932517635394</v>
+        <v>1.013839171732784</v>
       </c>
       <c r="M8">
-        <v>0.9981446340626179</v>
+        <v>1.026686326299016</v>
       </c>
       <c r="N8">
-        <v>1.001306402293089</v>
+        <v>1.008674940906365</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9585851977707106</v>
+        <v>1.006222028175856</v>
       </c>
       <c r="D9">
-        <v>1.031230543191297</v>
+        <v>1.03110546721852</v>
       </c>
       <c r="E9">
-        <v>0.9713692941206158</v>
+        <v>1.009114012105881</v>
       </c>
       <c r="F9">
-        <v>0.9739371890764592</v>
+        <v>1.021202370445667</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046707544047324</v>
+        <v>1.031067366138715</v>
       </c>
       <c r="J9">
-        <v>0.9856902355937551</v>
+        <v>1.012214242974637</v>
       </c>
       <c r="K9">
-        <v>1.043836462187564</v>
+        <v>1.034284094697896</v>
       </c>
       <c r="L9">
-        <v>0.9849446171722234</v>
+        <v>1.012366864276665</v>
       </c>
       <c r="M9">
-        <v>0.9874677613535581</v>
+        <v>1.024413987851854</v>
       </c>
       <c r="N9">
-        <v>0.9990498430219527</v>
+        <v>1.008194141070506</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.950806501955093</v>
+        <v>1.004713560051089</v>
       </c>
       <c r="D10">
-        <v>1.027894126640707</v>
+        <v>1.030476620856087</v>
       </c>
       <c r="E10">
-        <v>0.9652641888975666</v>
+        <v>1.007837175535151</v>
       </c>
       <c r="F10">
-        <v>0.9649093493919163</v>
+        <v>1.019389633113593</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045571059940826</v>
+        <v>1.030969656804606</v>
       </c>
       <c r="J10">
-        <v>0.9811176317939103</v>
+        <v>1.011269088963</v>
       </c>
       <c r="K10">
-        <v>1.041777368934041</v>
+        <v>1.033942070587574</v>
       </c>
       <c r="L10">
-        <v>0.980290269135299</v>
+        <v>1.011386509442683</v>
       </c>
       <c r="M10">
-        <v>0.9799424600369665</v>
+        <v>1.022895647591671</v>
       </c>
       <c r="N10">
-        <v>0.9974632743760303</v>
+        <v>1.007872964236376</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9473372367423455</v>
+        <v>1.00406107179846</v>
       </c>
       <c r="D11">
-        <v>1.026413332247958</v>
+        <v>1.030203893164928</v>
       </c>
       <c r="E11">
-        <v>0.9625523351590543</v>
+        <v>1.007285369078627</v>
       </c>
       <c r="F11">
-        <v>0.9608778303783136</v>
+        <v>1.018604561159586</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045050783949351</v>
+        <v>1.030925338441076</v>
       </c>
       <c r="J11">
-        <v>0.9790776984529065</v>
+        <v>1.010859866119108</v>
       </c>
       <c r="K11">
-        <v>1.04085374958402</v>
+        <v>1.033792617693473</v>
       </c>
       <c r="L11">
-        <v>0.978216785310224</v>
+        <v>1.010962292047679</v>
       </c>
       <c r="M11">
-        <v>0.9765772715887745</v>
+        <v>1.022237373567675</v>
       </c>
       <c r="N11">
-        <v>0.9967549034255104</v>
+        <v>1.007733741347171</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9460324553323856</v>
+        <v>1.003818812092956</v>
       </c>
       <c r="D12">
-        <v>1.025857716943315</v>
+        <v>1.030102527034897</v>
       </c>
       <c r="E12">
-        <v>0.9615341522908957</v>
+        <v>1.0070805654184</v>
       </c>
       <c r="F12">
-        <v>0.9593608107337728</v>
+        <v>1.018312928463466</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044853199946832</v>
+        <v>1.030908575503303</v>
       </c>
       <c r="J12">
-        <v>0.9783104431208397</v>
+        <v>1.010707868123521</v>
       </c>
       <c r="K12">
-        <v>1.040505743077639</v>
+        <v>1.033736902236247</v>
       </c>
       <c r="L12">
-        <v>0.9774373619562661</v>
+        <v>1.010804761759479</v>
       </c>
       <c r="M12">
-        <v>0.9753103276475111</v>
+        <v>1.021992737707338</v>
       </c>
       <c r="N12">
-        <v>0.996488397158788</v>
+        <v>1.007682005264285</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9463130821189825</v>
+        <v>1.003870772938306</v>
       </c>
       <c r="D13">
-        <v>1.025977153577365</v>
+        <v>1.030124273227029</v>
       </c>
       <c r="E13">
-        <v>0.9617530587414336</v>
+        <v>1.00712448916385</v>
       </c>
       <c r="F13">
-        <v>0.9596871199603388</v>
+        <v>1.018375485667477</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044895780000435</v>
+        <v>1.030912184824205</v>
       </c>
       <c r="J13">
-        <v>0.9784754622648414</v>
+        <v>1.010740471951488</v>
       </c>
       <c r="K13">
-        <v>1.040580616958424</v>
+        <v>1.033748862508532</v>
       </c>
       <c r="L13">
-        <v>0.9776049775817292</v>
+        <v>1.010838550590418</v>
       </c>
       <c r="M13">
-        <v>0.9755828748986853</v>
+        <v>1.022045218521704</v>
       </c>
       <c r="N13">
-        <v>0.996545719818926</v>
+        <v>1.007693103844571</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9472297182277751</v>
+        <v>1.004041044424234</v>
       </c>
       <c r="D14">
-        <v>1.026367519742058</v>
+        <v>1.030195515480268</v>
       </c>
       <c r="E14">
-        <v>0.9624683975273935</v>
+        <v>1.007268436638683</v>
       </c>
       <c r="F14">
-        <v>0.960752838499032</v>
+        <v>1.018580455160681</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.045034540525191</v>
+        <v>1.030923958949693</v>
       </c>
       <c r="J14">
-        <v>0.9790144745405482</v>
+        <v>1.01084730180151</v>
       </c>
       <c r="K14">
-        <v>1.040825084633386</v>
+        <v>1.033788016348719</v>
       </c>
       <c r="L14">
-        <v>0.9781525494813219</v>
+        <v>1.010949269666246</v>
       </c>
       <c r="M14">
-        <v>0.9764728973288063</v>
+        <v>1.022217154412004</v>
       </c>
       <c r="N14">
-        <v>0.9967329440588429</v>
+        <v>1.007729465284241</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9477923189628472</v>
+        <v>1.004145968020824</v>
       </c>
       <c r="D15">
-        <v>1.026607292603417</v>
+        <v>1.030239401909741</v>
       </c>
       <c r="E15">
-        <v>0.9629076804231542</v>
+        <v>1.007357148894573</v>
       </c>
       <c r="F15">
-        <v>0.9614068386043303</v>
+        <v>1.018706740704603</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045119458592944</v>
+        <v>1.030931173498711</v>
       </c>
       <c r="J15">
-        <v>0.9793452981682805</v>
+        <v>1.010913123948129</v>
       </c>
       <c r="K15">
-        <v>1.040975051725286</v>
+        <v>1.033812113598548</v>
       </c>
       <c r="L15">
-        <v>0.9784886864854674</v>
+        <v>1.011017493047031</v>
       </c>
       <c r="M15">
-        <v>0.9770189924785013</v>
+        <v>1.022323073413832</v>
       </c>
       <c r="N15">
-        <v>0.9968478450034572</v>
+        <v>1.007751865791817</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9510345365146283</v>
+        <v>1.004756878056235</v>
       </c>
       <c r="D16">
-        <v>1.027991628153381</v>
+        <v>1.030494711953621</v>
       </c>
       <c r="E16">
-        <v>0.9654426749544041</v>
+        <v>1.007873819765652</v>
       </c>
       <c r="F16">
-        <v>0.9651742335719276</v>
+        <v>1.019441732681074</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045604987226147</v>
+        <v>1.030972555796673</v>
       </c>
       <c r="J16">
-        <v>0.9812517082368605</v>
+        <v>1.011296248501701</v>
       </c>
       <c r="K16">
-        <v>1.041837981637905</v>
+        <v>1.033951960876981</v>
       </c>
       <c r="L16">
-        <v>0.9804266124927024</v>
+        <v>1.011414669350318</v>
       </c>
       <c r="M16">
-        <v>0.9801634707136748</v>
+        <v>1.022939317739598</v>
       </c>
       <c r="N16">
-        <v>0.9975098216882203</v>
+        <v>1.0078822008336</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9530405875224528</v>
+        <v>1.005140270126049</v>
       </c>
       <c r="D17">
-        <v>1.028850210750966</v>
+        <v>1.030654746770806</v>
       </c>
       <c r="E17">
-        <v>0.9670141017023154</v>
+        <v>1.008198201335182</v>
       </c>
       <c r="F17">
-        <v>0.9675038709507987</v>
+        <v>1.019902734790085</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045901937554271</v>
+        <v>1.030997976358754</v>
       </c>
       <c r="J17">
-        <v>0.9824311370746759</v>
+        <v>1.011536582029025</v>
       </c>
       <c r="K17">
-        <v>1.042370618590889</v>
+        <v>1.03403932185319</v>
       </c>
       <c r="L17">
-        <v>0.9816263158564269</v>
+        <v>1.011663883572182</v>
       </c>
       <c r="M17">
-        <v>0.982106719961006</v>
+        <v>1.023325651286147</v>
       </c>
       <c r="N17">
-        <v>0.9979192203688587</v>
+        <v>1.007963916231882</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.954201003265357</v>
+        <v>1.00536396265025</v>
       </c>
       <c r="D18">
-        <v>1.029347535151205</v>
+        <v>1.030748050444671</v>
       </c>
       <c r="E18">
-        <v>0.9679241422406032</v>
+        <v>1.008387511019137</v>
       </c>
       <c r="F18">
-        <v>0.9688509808087036</v>
+        <v>1.020171615575021</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04607243259091</v>
+        <v>1.031012609794655</v>
       </c>
       <c r="J18">
-        <v>0.9831133296447661</v>
+        <v>1.011676767872681</v>
       </c>
       <c r="K18">
-        <v>1.042678216150953</v>
+        <v>1.034090147275156</v>
       </c>
       <c r="L18">
-        <v>0.9823205110274511</v>
+        <v>1.011809273258319</v>
       </c>
       <c r="M18">
-        <v>0.9832299580412296</v>
+        <v>1.023550913730465</v>
       </c>
       <c r="N18">
-        <v>0.9981559656619291</v>
+        <v>1.008011564838239</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9545950611486343</v>
+        <v>1.005440247283903</v>
       </c>
       <c r="D19">
-        <v>1.029516525590989</v>
+        <v>1.030779857409307</v>
       </c>
       <c r="E19">
-        <v>0.968233350219813</v>
+        <v>1.008452078245504</v>
       </c>
       <c r="F19">
-        <v>0.9693083543757895</v>
+        <v>1.020263294617071</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046130109999992</v>
+        <v>1.031017566497042</v>
       </c>
       <c r="J19">
-        <v>0.9833449799185344</v>
+        <v>1.011724568183428</v>
       </c>
       <c r="K19">
-        <v>1.042782580037988</v>
+        <v>1.034107455207463</v>
       </c>
       <c r="L19">
-        <v>0.9825562833845559</v>
+        <v>1.011858851991478</v>
       </c>
       <c r="M19">
-        <v>0.9836112458065167</v>
+        <v>1.023627708938352</v>
       </c>
       <c r="N19">
-        <v>0.9982363470376264</v>
+        <v>1.00802780929825</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9528263651774914</v>
+        <v>1.005099128915071</v>
       </c>
       <c r="D20">
-        <v>1.028758453231096</v>
+        <v>1.030637580870748</v>
       </c>
       <c r="E20">
-        <v>0.9668461838940839</v>
+        <v>1.008163387561876</v>
       </c>
       <c r="F20">
-        <v>0.9672551439807865</v>
+        <v>1.019853275070905</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045870358696854</v>
+        <v>1.030995269028222</v>
       </c>
       <c r="J20">
-        <v>0.9823051937547314</v>
+        <v>1.011510796165793</v>
       </c>
       <c r="K20">
-        <v>1.04231379118356</v>
+        <v>1.034029962361547</v>
       </c>
       <c r="L20">
-        <v>0.9814981788668294</v>
+        <v>1.011637142423026</v>
       </c>
       <c r="M20">
-        <v>0.9818992919812097</v>
+        <v>1.023284209562856</v>
       </c>
       <c r="N20">
-        <v>0.9978755090249255</v>
+        <v>1.007955150451885</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9469602454467841</v>
+        <v>1.00399090085838</v>
       </c>
       <c r="D21">
-        <v>1.026252722057682</v>
+        <v>1.030174538132198</v>
       </c>
       <c r="E21">
-        <v>0.9622580536160765</v>
+        <v>1.007226043221982</v>
       </c>
       <c r="F21">
-        <v>0.9604395598485844</v>
+        <v>1.018520097363645</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044993799373004</v>
+        <v>1.030920500069369</v>
       </c>
       <c r="J21">
-        <v>0.9788560164417435</v>
+        <v>1.010815842916484</v>
       </c>
       <c r="K21">
-        <v>1.040753232205709</v>
+        <v>1.033776492083166</v>
       </c>
       <c r="L21">
-        <v>0.9779915625227483</v>
+        <v>1.010916664468905</v>
       </c>
       <c r="M21">
-        <v>0.9762112840670575</v>
+        <v>1.022166526988921</v>
       </c>
       <c r="N21">
-        <v>0.9966779061183705</v>
+        <v>1.007718758366023</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9431780573159646</v>
+        <v>1.003294712650712</v>
       </c>
       <c r="D22">
-        <v>1.024644885793737</v>
+        <v>1.029883041784247</v>
       </c>
       <c r="E22">
-        <v>0.959310026325501</v>
+        <v>1.006637634279321</v>
       </c>
       <c r="F22">
-        <v>0.9560406764780213</v>
+        <v>1.017681748104773</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.04441756352636</v>
+        <v>1.030871748033411</v>
       </c>
       <c r="J22">
-        <v>0.976631934700221</v>
+        <v>1.010378930722495</v>
       </c>
       <c r="K22">
-        <v>1.039743437781635</v>
+        <v>1.033615957273841</v>
       </c>
       <c r="L22">
-        <v>0.975733078005008</v>
+        <v>1.010463920055186</v>
       </c>
       <c r="M22">
-        <v>0.9725363437802451</v>
+        <v>1.021463080616342</v>
       </c>
       <c r="N22">
-        <v>0.995905240121276</v>
+        <v>1.00756999918957</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9451923116853392</v>
+        <v>1.003663718415602</v>
       </c>
       <c r="D23">
-        <v>1.025500355343647</v>
+        <v>1.030037603210779</v>
       </c>
       <c r="E23">
-        <v>0.9608790492727192</v>
+        <v>1.006949471962471</v>
       </c>
       <c r="F23">
-        <v>0.9583837882908606</v>
+        <v>1.018126185088441</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044725451775444</v>
+        <v>1.0308977572518</v>
       </c>
       <c r="J23">
-        <v>0.9778164043175692</v>
+        <v>1.010610542956186</v>
       </c>
       <c r="K23">
-        <v>1.040281504048696</v>
+        <v>1.03370117004204</v>
       </c>
       <c r="L23">
-        <v>0.9769356168384045</v>
+        <v>1.010703904708389</v>
       </c>
       <c r="M23">
-        <v>0.9744941841197204</v>
+        <v>1.021836058614209</v>
       </c>
       <c r="N23">
-        <v>0.996316772793611</v>
+        <v>1.007648871503509</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9529231928771995</v>
+        <v>1.005117718652084</v>
       </c>
       <c r="D24">
-        <v>1.028799925224217</v>
+        <v>1.030645337531904</v>
       </c>
       <c r="E24">
-        <v>0.966922078908119</v>
+        <v>1.008179118088021</v>
       </c>
       <c r="F24">
-        <v>0.9673675691519101</v>
+        <v>1.019875623831825</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045884636194133</v>
+        <v>1.030996492953703</v>
       </c>
       <c r="J24">
-        <v>0.9823621198455178</v>
+        <v>1.011522447677019</v>
       </c>
       <c r="K24">
-        <v>1.042339478554027</v>
+        <v>1.034034191917137</v>
       </c>
       <c r="L24">
-        <v>0.9815560956374146</v>
+        <v>1.011649225513072</v>
       </c>
       <c r="M24">
-        <v>0.9819930512904478</v>
+        <v>1.023302935538801</v>
       </c>
       <c r="N24">
-        <v>0.9978952666221997</v>
+        <v>1.007959111375672</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9615175303101837</v>
+        <v>1.006807610107469</v>
       </c>
       <c r="D25">
-        <v>1.032493158878481</v>
+        <v>1.031348926809489</v>
       </c>
       <c r="E25">
-        <v>0.9736797049663379</v>
+        <v>1.009610107520255</v>
       </c>
       <c r="F25">
-        <v>0.9773359816111985</v>
+        <v>1.021905203886597</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047123741279191</v>
+        <v>1.031103459131419</v>
       </c>
       <c r="J25">
-        <v>0.9874132055041061</v>
+        <v>1.012580793081218</v>
       </c>
       <c r="K25">
-        <v>1.044607163600231</v>
+        <v>1.034415510570458</v>
       </c>
       <c r="L25">
-        <v>0.986700830333845</v>
+        <v>1.012747284800372</v>
       </c>
       <c r="M25">
-        <v>0.9902966205775827</v>
+        <v>1.025002050543519</v>
       </c>
       <c r="N25">
-        <v>0.9996471110237918</v>
+        <v>1.008318553842353</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_200/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_200/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.008157561927207</v>
+        <v>0.9680999818179058</v>
       </c>
       <c r="D2">
-        <v>1.031908695811567</v>
+        <v>1.035334694621483</v>
       </c>
       <c r="E2">
-        <v>1.010754702834615</v>
+        <v>0.9788843351945918</v>
       </c>
       <c r="F2">
-        <v>1.023523560585324</v>
+        <v>0.984955854228428</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.031182607401444</v>
+        <v>1.048029728832454</v>
       </c>
       <c r="J2">
-        <v>1.013425020236795</v>
+        <v>0.9912785587647817</v>
       </c>
       <c r="K2">
-        <v>1.034715454374724</v>
+        <v>1.04632276782053</v>
       </c>
       <c r="L2">
-        <v>1.013623937449379</v>
+        <v>0.9906458996987973</v>
       </c>
       <c r="M2">
-        <v>1.02635474757224</v>
+        <v>0.9966288344656824</v>
       </c>
       <c r="N2">
-        <v>1.00860477369097</v>
+        <v>1.000985663178576</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.009138964678214</v>
+        <v>0.9727354959617349</v>
       </c>
       <c r="D3">
-        <v>1.03231427939092</v>
+        <v>1.037339870400996</v>
       </c>
       <c r="E3">
-        <v>1.011587648709747</v>
+        <v>0.9825650314791223</v>
       </c>
       <c r="F3">
-        <v>1.024698387513373</v>
+        <v>0.9903132140271301</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.031236483683852</v>
+        <v>1.048641234373355</v>
       </c>
       <c r="J3">
-        <v>1.014038053409991</v>
+        <v>0.9939980590265408</v>
       </c>
       <c r="K3">
-        <v>1.034930779979953</v>
+        <v>1.047516273024407</v>
       </c>
       <c r="L3">
-        <v>1.014260946678546</v>
+        <v>0.9934259661196209</v>
       </c>
       <c r="M3">
-        <v>1.027335468885301</v>
+        <v>1.001071558125513</v>
       </c>
       <c r="N3">
-        <v>1.008812318123289</v>
+        <v>1.001926065373614</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.009774561752514</v>
+        <v>0.9756726064997245</v>
       </c>
       <c r="D4">
-        <v>1.032576308677938</v>
+        <v>1.038611227866017</v>
       </c>
       <c r="E4">
-        <v>1.012127480847482</v>
+        <v>0.9849039396731675</v>
       </c>
       <c r="F4">
-        <v>1.025458468437626</v>
+        <v>0.9937036175349988</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.031269677770116</v>
+        <v>1.049015909241202</v>
       </c>
       <c r="J4">
-        <v>1.014434748068935</v>
+        <v>0.9957197672872894</v>
       </c>
       <c r="K4">
-        <v>1.035068962485437</v>
+        <v>1.048264955374795</v>
       </c>
       <c r="L4">
-        <v>1.014673354616881</v>
+        <v>0.9951880414331716</v>
       </c>
       <c r="M4">
-        <v>1.027969387188669</v>
+        <v>1.003878633099532</v>
       </c>
       <c r="N4">
-        <v>1.008946484043177</v>
+        <v>1.002520756677608</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.01004190150845</v>
+        <v>0.9768930213699817</v>
       </c>
       <c r="D5">
-        <v>1.032686365424027</v>
+        <v>1.039139553178857</v>
       </c>
       <c r="E5">
-        <v>1.01235463144146</v>
+        <v>0.9858773655665123</v>
       </c>
       <c r="F5">
-        <v>1.025777979906885</v>
+        <v>0.9951113977258831</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.031283232543117</v>
+        <v>1.049168450891736</v>
       </c>
       <c r="J5">
-        <v>1.014601523147745</v>
+        <v>0.9964347992366631</v>
       </c>
       <c r="K5">
-        <v>1.035126778221838</v>
+        <v>1.048574128288154</v>
       </c>
       <c r="L5">
-        <v>1.014846783108316</v>
+        <v>0.9959203164633499</v>
       </c>
       <c r="M5">
-        <v>1.028235724791089</v>
+        <v>1.005043092692001</v>
       </c>
       <c r="N5">
-        <v>1.009002856213794</v>
+        <v>1.002767564779002</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.010086796924366</v>
+        <v>0.9770971095882808</v>
       </c>
       <c r="D6">
-        <v>1.032704838488727</v>
+        <v>1.039227903335095</v>
       </c>
       <c r="E6">
-        <v>1.01239278303239</v>
+        <v>0.986040241149883</v>
       </c>
       <c r="F6">
-        <v>1.025831625729752</v>
+        <v>0.9953467606544535</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.031285484967648</v>
+        <v>1.049193773390432</v>
       </c>
       <c r="J6">
-        <v>1.014629525677133</v>
+        <v>0.9965543507286975</v>
       </c>
       <c r="K6">
-        <v>1.035136469499866</v>
+        <v>1.048625715089594</v>
       </c>
       <c r="L6">
-        <v>1.014875905559487</v>
+        <v>0.9960427788934607</v>
       </c>
       <c r="M6">
-        <v>1.028280434558232</v>
+        <v>1.005237709571554</v>
       </c>
       <c r="N6">
-        <v>1.009012319513489</v>
+        <v>1.002808820276346</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.009778133430255</v>
+        <v>0.975688969360795</v>
       </c>
       <c r="D7">
-        <v>1.032577779658626</v>
+        <v>1.038618311421756</v>
       </c>
       <c r="E7">
-        <v>1.01213051523973</v>
+        <v>0.9849169848528312</v>
       </c>
       <c r="F7">
-        <v>1.025462737869963</v>
+        <v>0.9937224964203685</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.031269860462511</v>
+        <v>1.049017966970246</v>
       </c>
       <c r="J7">
-        <v>1.014436976507994</v>
+        <v>0.9957293556435117</v>
       </c>
       <c r="K7">
-        <v>1.035069736109228</v>
+        <v>1.048269108359001</v>
       </c>
       <c r="L7">
-        <v>1.014675671772493</v>
+        <v>0.9951978591317457</v>
       </c>
       <c r="M7">
-        <v>1.027972946640359</v>
+        <v>1.003894253375067</v>
       </c>
       <c r="N7">
-        <v>1.008947237413718</v>
+        <v>1.002524066976952</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.008489114679871</v>
+        <v>0.969679854731448</v>
       </c>
       <c r="D8">
-        <v>1.032045848392459</v>
+        <v>1.036017825059683</v>
       </c>
       <c r="E8">
-        <v>1.011036022128824</v>
+        <v>0.9801373320798452</v>
       </c>
       <c r="F8">
-        <v>1.023920621723085</v>
+        <v>0.9867825972238108</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.031201159909769</v>
+        <v>1.048240776481801</v>
       </c>
       <c r="J8">
-        <v>1.013632193017655</v>
+        <v>0.9922056914626356</v>
       </c>
       <c r="K8">
-        <v>1.034788461405408</v>
+        <v>1.046731050948497</v>
       </c>
       <c r="L8">
-        <v>1.013839171732784</v>
+        <v>0.99159325176354</v>
       </c>
       <c r="M8">
-        <v>1.026686326299016</v>
+        <v>0.9981446340626181</v>
       </c>
       <c r="N8">
-        <v>1.008674940906365</v>
+        <v>1.001306402293089</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.006222028175856</v>
+        <v>0.9585851977707107</v>
       </c>
       <c r="D9">
-        <v>1.03110546721852</v>
+        <v>1.031230543191297</v>
       </c>
       <c r="E9">
-        <v>1.009114012105881</v>
+        <v>0.9713692941206162</v>
       </c>
       <c r="F9">
-        <v>1.021202370445667</v>
+        <v>0.9739371890764593</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031067366138715</v>
+        <v>1.046707544047324</v>
       </c>
       <c r="J9">
-        <v>1.012214242974637</v>
+        <v>0.9856902355937553</v>
       </c>
       <c r="K9">
-        <v>1.034284094697896</v>
+        <v>1.043836462187564</v>
       </c>
       <c r="L9">
-        <v>1.012366864276665</v>
+        <v>0.9849446171722237</v>
       </c>
       <c r="M9">
-        <v>1.024413987851854</v>
+        <v>0.9874677613535582</v>
       </c>
       <c r="N9">
-        <v>1.008194141070506</v>
+        <v>0.9990498430219527</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.004713560051089</v>
+        <v>0.9508065019550929</v>
       </c>
       <c r="D10">
-        <v>1.030476620856087</v>
+        <v>1.027894126640707</v>
       </c>
       <c r="E10">
-        <v>1.007837175535151</v>
+        <v>0.9652641888975664</v>
       </c>
       <c r="F10">
-        <v>1.019389633113593</v>
+        <v>0.9649093493919162</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030969656804606</v>
+        <v>1.045571059940826</v>
       </c>
       <c r="J10">
-        <v>1.011269088963</v>
+        <v>0.9811176317939102</v>
       </c>
       <c r="K10">
-        <v>1.033942070587574</v>
+        <v>1.041777368934041</v>
       </c>
       <c r="L10">
-        <v>1.011386509442683</v>
+        <v>0.9802902691352988</v>
       </c>
       <c r="M10">
-        <v>1.022895647591671</v>
+        <v>0.9799424600369664</v>
       </c>
       <c r="N10">
-        <v>1.007872964236376</v>
+        <v>0.9974632743760304</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.00406107179846</v>
+        <v>0.9473372367423456</v>
       </c>
       <c r="D11">
-        <v>1.030203893164928</v>
+        <v>1.026413332247958</v>
       </c>
       <c r="E11">
-        <v>1.007285369078627</v>
+        <v>0.9625523351590543</v>
       </c>
       <c r="F11">
-        <v>1.018604561159586</v>
+        <v>0.960877830378314</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030925338441076</v>
+        <v>1.045050783949351</v>
       </c>
       <c r="J11">
-        <v>1.010859866119108</v>
+        <v>0.9790776984529066</v>
       </c>
       <c r="K11">
-        <v>1.033792617693473</v>
+        <v>1.040853749584019</v>
       </c>
       <c r="L11">
-        <v>1.010962292047679</v>
+        <v>0.9782167853102239</v>
       </c>
       <c r="M11">
-        <v>1.022237373567675</v>
+        <v>0.9765772715887747</v>
       </c>
       <c r="N11">
-        <v>1.007733741347171</v>
+        <v>0.9967549034255102</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.003818812092956</v>
+        <v>0.946032455332386</v>
       </c>
       <c r="D12">
-        <v>1.030102527034897</v>
+        <v>1.025857716943315</v>
       </c>
       <c r="E12">
-        <v>1.0070805654184</v>
+        <v>0.961534152290896</v>
       </c>
       <c r="F12">
-        <v>1.018312928463466</v>
+        <v>0.959360810733773</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030908575503303</v>
+        <v>1.044853199946832</v>
       </c>
       <c r="J12">
-        <v>1.010707868123521</v>
+        <v>0.9783104431208403</v>
       </c>
       <c r="K12">
-        <v>1.033736902236247</v>
+        <v>1.040505743077639</v>
       </c>
       <c r="L12">
-        <v>1.010804761759479</v>
+        <v>0.9774373619562665</v>
       </c>
       <c r="M12">
-        <v>1.021992737707338</v>
+        <v>0.9753103276475115</v>
       </c>
       <c r="N12">
-        <v>1.007682005264285</v>
+        <v>0.9964883971587881</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.003870772938306</v>
+        <v>0.9463130821189824</v>
       </c>
       <c r="D13">
-        <v>1.030124273227029</v>
+        <v>1.025977153577365</v>
       </c>
       <c r="E13">
-        <v>1.00712448916385</v>
+        <v>0.9617530587414335</v>
       </c>
       <c r="F13">
-        <v>1.018375485667477</v>
+        <v>0.959687119960339</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030912184824205</v>
+        <v>1.044895780000435</v>
       </c>
       <c r="J13">
-        <v>1.010740471951488</v>
+        <v>0.9784754622648414</v>
       </c>
       <c r="K13">
-        <v>1.033748862508532</v>
+        <v>1.040580616958424</v>
       </c>
       <c r="L13">
-        <v>1.010838550590418</v>
+        <v>0.977604977581729</v>
       </c>
       <c r="M13">
-        <v>1.022045218521704</v>
+        <v>0.9755828748986854</v>
       </c>
       <c r="N13">
-        <v>1.007693103844571</v>
+        <v>0.9965457198189259</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.004041044424234</v>
+        <v>0.947229718227775</v>
       </c>
       <c r="D14">
-        <v>1.030195515480268</v>
+        <v>1.026367519742058</v>
       </c>
       <c r="E14">
-        <v>1.007268436638683</v>
+        <v>0.9624683975273931</v>
       </c>
       <c r="F14">
-        <v>1.018580455160681</v>
+        <v>0.9607528384990315</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030923958949693</v>
+        <v>1.045034540525191</v>
       </c>
       <c r="J14">
-        <v>1.01084730180151</v>
+        <v>0.9790144745405479</v>
       </c>
       <c r="K14">
-        <v>1.033788016348719</v>
+        <v>1.040825084633386</v>
       </c>
       <c r="L14">
-        <v>1.010949269666246</v>
+        <v>0.9781525494813215</v>
       </c>
       <c r="M14">
-        <v>1.022217154412004</v>
+        <v>0.9764728973288057</v>
       </c>
       <c r="N14">
-        <v>1.007729465284241</v>
+        <v>0.9967329440588429</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.004145968020824</v>
+        <v>0.9477923189628471</v>
       </c>
       <c r="D15">
-        <v>1.030239401909741</v>
+        <v>1.026607292603417</v>
       </c>
       <c r="E15">
-        <v>1.007357148894573</v>
+        <v>0.9629076804231539</v>
       </c>
       <c r="F15">
-        <v>1.018706740704603</v>
+        <v>0.9614068386043298</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030931173498711</v>
+        <v>1.045119458592944</v>
       </c>
       <c r="J15">
-        <v>1.010913123948129</v>
+        <v>0.9793452981682803</v>
       </c>
       <c r="K15">
-        <v>1.033812113598548</v>
+        <v>1.040975051725286</v>
       </c>
       <c r="L15">
-        <v>1.011017493047031</v>
+        <v>0.9784886864854671</v>
       </c>
       <c r="M15">
-        <v>1.022323073413832</v>
+        <v>0.9770189924785011</v>
       </c>
       <c r="N15">
-        <v>1.007751865791817</v>
+        <v>0.9968478450034572</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.004756878056235</v>
+        <v>0.9510345365146278</v>
       </c>
       <c r="D16">
-        <v>1.030494711953621</v>
+        <v>1.027991628153381</v>
       </c>
       <c r="E16">
-        <v>1.007873819765652</v>
+        <v>0.9654426749544036</v>
       </c>
       <c r="F16">
-        <v>1.019441732681074</v>
+        <v>0.9651742335719274</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030972555796673</v>
+        <v>1.045604987226148</v>
       </c>
       <c r="J16">
-        <v>1.011296248501701</v>
+        <v>0.98125170823686</v>
       </c>
       <c r="K16">
-        <v>1.033951960876981</v>
+        <v>1.041837981637906</v>
       </c>
       <c r="L16">
-        <v>1.011414669350318</v>
+        <v>0.9804266124927018</v>
       </c>
       <c r="M16">
-        <v>1.022939317739598</v>
+        <v>0.9801634707136745</v>
       </c>
       <c r="N16">
-        <v>1.0078822008336</v>
+        <v>0.9975098216882203</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.005140270126049</v>
+        <v>0.9530405875224528</v>
       </c>
       <c r="D17">
-        <v>1.030654746770806</v>
+        <v>1.028850210750966</v>
       </c>
       <c r="E17">
-        <v>1.008198201335182</v>
+        <v>0.9670141017023153</v>
       </c>
       <c r="F17">
-        <v>1.019902734790085</v>
+        <v>0.9675038709507986</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030997976358754</v>
+        <v>1.045901937554271</v>
       </c>
       <c r="J17">
-        <v>1.011536582029025</v>
+        <v>0.9824311370746759</v>
       </c>
       <c r="K17">
-        <v>1.03403932185319</v>
+        <v>1.042370618590889</v>
       </c>
       <c r="L17">
-        <v>1.011663883572182</v>
+        <v>0.9816263158564269</v>
       </c>
       <c r="M17">
-        <v>1.023325651286147</v>
+        <v>0.982106719961006</v>
       </c>
       <c r="N17">
-        <v>1.007963916231882</v>
+        <v>0.9979192203688587</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.00536396265025</v>
+        <v>0.9542010032653575</v>
       </c>
       <c r="D18">
-        <v>1.030748050444671</v>
+        <v>1.029347535151205</v>
       </c>
       <c r="E18">
-        <v>1.008387511019137</v>
+        <v>0.9679241422406032</v>
       </c>
       <c r="F18">
-        <v>1.020171615575021</v>
+        <v>0.9688509808087036</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031012609794655</v>
+        <v>1.04607243259091</v>
       </c>
       <c r="J18">
-        <v>1.011676767872681</v>
+        <v>0.9831133296447663</v>
       </c>
       <c r="K18">
-        <v>1.034090147275156</v>
+        <v>1.042678216150953</v>
       </c>
       <c r="L18">
-        <v>1.011809273258319</v>
+        <v>0.9823205110274512</v>
       </c>
       <c r="M18">
-        <v>1.023550913730465</v>
+        <v>0.9832299580412297</v>
       </c>
       <c r="N18">
-        <v>1.008011564838239</v>
+        <v>0.9981559656619292</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.005440247283903</v>
+        <v>0.9545950611486346</v>
       </c>
       <c r="D19">
-        <v>1.030779857409307</v>
+        <v>1.029516525590989</v>
       </c>
       <c r="E19">
-        <v>1.008452078245504</v>
+        <v>0.9682333502198128</v>
       </c>
       <c r="F19">
-        <v>1.020263294617071</v>
+        <v>0.9693083543757894</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031017566497042</v>
+        <v>1.046130109999992</v>
       </c>
       <c r="J19">
-        <v>1.011724568183428</v>
+        <v>0.9833449799185343</v>
       </c>
       <c r="K19">
-        <v>1.034107455207463</v>
+        <v>1.042782580037988</v>
       </c>
       <c r="L19">
-        <v>1.011858851991478</v>
+        <v>0.9825562833845558</v>
       </c>
       <c r="M19">
-        <v>1.023627708938352</v>
+        <v>0.9836112458065167</v>
       </c>
       <c r="N19">
-        <v>1.00802780929825</v>
+        <v>0.9982363470376266</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.005099128915071</v>
+        <v>0.9528263651774913</v>
       </c>
       <c r="D20">
-        <v>1.030637580870748</v>
+        <v>1.028758453231096</v>
       </c>
       <c r="E20">
-        <v>1.008163387561876</v>
+        <v>0.9668461838940838</v>
       </c>
       <c r="F20">
-        <v>1.019853275070905</v>
+        <v>0.9672551439807866</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030995269028222</v>
+        <v>1.045870358696854</v>
       </c>
       <c r="J20">
-        <v>1.011510796165793</v>
+        <v>0.9823051937547314</v>
       </c>
       <c r="K20">
-        <v>1.034029962361547</v>
+        <v>1.04231379118356</v>
       </c>
       <c r="L20">
-        <v>1.011637142423026</v>
+        <v>0.9814981788668294</v>
       </c>
       <c r="M20">
-        <v>1.023284209562856</v>
+        <v>0.9818992919812098</v>
       </c>
       <c r="N20">
-        <v>1.007955150451885</v>
+        <v>0.9978755090249256</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.00399090085838</v>
+        <v>0.9469602454467843</v>
       </c>
       <c r="D21">
-        <v>1.030174538132198</v>
+        <v>1.026252722057682</v>
       </c>
       <c r="E21">
-        <v>1.007226043221982</v>
+        <v>0.9622580536160765</v>
       </c>
       <c r="F21">
-        <v>1.018520097363645</v>
+        <v>0.9604395598485848</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030920500069369</v>
+        <v>1.044993799373004</v>
       </c>
       <c r="J21">
-        <v>1.010815842916484</v>
+        <v>0.9788560164417437</v>
       </c>
       <c r="K21">
-        <v>1.033776492083166</v>
+        <v>1.040753232205709</v>
       </c>
       <c r="L21">
-        <v>1.010916664468905</v>
+        <v>0.9779915625227483</v>
       </c>
       <c r="M21">
-        <v>1.022166526988921</v>
+        <v>0.9762112840670578</v>
       </c>
       <c r="N21">
-        <v>1.007718758366023</v>
+        <v>0.9966779061183706</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.003294712650712</v>
+        <v>0.9431780573159644</v>
       </c>
       <c r="D22">
-        <v>1.029883041784247</v>
+        <v>1.024644885793737</v>
       </c>
       <c r="E22">
-        <v>1.006637634279321</v>
+        <v>0.9593100263255006</v>
       </c>
       <c r="F22">
-        <v>1.017681748104773</v>
+        <v>0.9560406764780209</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030871748033411</v>
+        <v>1.04441756352636</v>
       </c>
       <c r="J22">
-        <v>1.010378930722495</v>
+        <v>0.9766319347002207</v>
       </c>
       <c r="K22">
-        <v>1.033615957273841</v>
+        <v>1.039743437781635</v>
       </c>
       <c r="L22">
-        <v>1.010463920055186</v>
+        <v>0.9757330780050075</v>
       </c>
       <c r="M22">
-        <v>1.021463080616342</v>
+        <v>0.9725363437802448</v>
       </c>
       <c r="N22">
-        <v>1.00756999918957</v>
+        <v>0.9959052401212758</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.003663718415602</v>
+        <v>0.9451923116853395</v>
       </c>
       <c r="D23">
-        <v>1.030037603210779</v>
+        <v>1.025500355343647</v>
       </c>
       <c r="E23">
-        <v>1.006949471962471</v>
+        <v>0.9608790492727197</v>
       </c>
       <c r="F23">
-        <v>1.018126185088441</v>
+        <v>0.9583837882908604</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.0308977572518</v>
+        <v>1.044725451775443</v>
       </c>
       <c r="J23">
-        <v>1.010610542956186</v>
+        <v>0.9778164043175697</v>
       </c>
       <c r="K23">
-        <v>1.03370117004204</v>
+        <v>1.040281504048696</v>
       </c>
       <c r="L23">
-        <v>1.010703904708389</v>
+        <v>0.976935616838405</v>
       </c>
       <c r="M23">
-        <v>1.021836058614209</v>
+        <v>0.9744941841197202</v>
       </c>
       <c r="N23">
-        <v>1.007648871503509</v>
+        <v>0.9963167727936111</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.005117718652084</v>
+        <v>0.9529231928771998</v>
       </c>
       <c r="D24">
-        <v>1.030645337531904</v>
+        <v>1.028799925224217</v>
       </c>
       <c r="E24">
-        <v>1.008179118088021</v>
+        <v>0.9669220789081189</v>
       </c>
       <c r="F24">
-        <v>1.019875623831825</v>
+        <v>0.9673675691519104</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030996492953703</v>
+        <v>1.045884636194133</v>
       </c>
       <c r="J24">
-        <v>1.011522447677019</v>
+        <v>0.9823621198455179</v>
       </c>
       <c r="K24">
-        <v>1.034034191917137</v>
+        <v>1.042339478554027</v>
       </c>
       <c r="L24">
-        <v>1.011649225513072</v>
+        <v>0.9815560956374145</v>
       </c>
       <c r="M24">
-        <v>1.023302935538801</v>
+        <v>0.9819930512904479</v>
       </c>
       <c r="N24">
-        <v>1.007959111375672</v>
+        <v>0.9978952666221997</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.006807610107469</v>
+        <v>0.9615175303101837</v>
       </c>
       <c r="D25">
-        <v>1.031348926809489</v>
+        <v>1.032493158878482</v>
       </c>
       <c r="E25">
-        <v>1.009610107520255</v>
+        <v>0.9736797049663379</v>
       </c>
       <c r="F25">
-        <v>1.021905203886597</v>
+        <v>0.9773359816111985</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031103459131419</v>
+        <v>1.047123741279191</v>
       </c>
       <c r="J25">
-        <v>1.012580793081218</v>
+        <v>0.9874132055041061</v>
       </c>
       <c r="K25">
-        <v>1.034415510570458</v>
+        <v>1.044607163600231</v>
       </c>
       <c r="L25">
-        <v>1.012747284800372</v>
+        <v>0.986700830333845</v>
       </c>
       <c r="M25">
-        <v>1.025002050543519</v>
+        <v>0.9902966205775828</v>
       </c>
       <c r="N25">
-        <v>1.008318553842353</v>
+        <v>0.9996471110237917</v>
       </c>
     </row>
   </sheetData>
